--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H2">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I2">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J2">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.19191228378637</v>
+        <v>0.239262</v>
       </c>
       <c r="N2">
-        <v>1.19191228378637</v>
+        <v>0.717786</v>
       </c>
       <c r="O2">
-        <v>0.4998304806020479</v>
+        <v>0.08715472402266844</v>
       </c>
       <c r="P2">
-        <v>0.4998304806020479</v>
+        <v>0.08715472402266845</v>
       </c>
       <c r="Q2">
-        <v>60.78703605186482</v>
+        <v>12.589047115642</v>
       </c>
       <c r="R2">
-        <v>60.78703605186482</v>
+        <v>113.301424040778</v>
       </c>
       <c r="S2">
-        <v>0.3853704211649612</v>
+        <v>0.06686092512586569</v>
       </c>
       <c r="T2">
-        <v>0.3853704211649612</v>
+        <v>0.06686092512586571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9995885425071</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H3">
-        <v>50.9995885425071</v>
+        <v>157.848473</v>
       </c>
       <c r="I3">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J3">
-        <v>0.7710022420016901</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.19272076690455</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N3">
-        <v>1.19272076690455</v>
+        <v>3.839785</v>
       </c>
       <c r="O3">
-        <v>0.5001695193979523</v>
+        <v>0.4662328353874023</v>
       </c>
       <c r="P3">
-        <v>0.5001695193979523</v>
+        <v>0.4662328353874023</v>
       </c>
       <c r="Q3">
-        <v>60.82826835823557</v>
+        <v>67.34491098870056</v>
       </c>
       <c r="R3">
-        <v>60.82826835823557</v>
+        <v>606.1041988983051</v>
       </c>
       <c r="S3">
-        <v>0.385631820836729</v>
+        <v>0.3576714750418958</v>
       </c>
       <c r="T3">
-        <v>0.385631820836729</v>
+        <v>0.3576714750418958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.35733791953756</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H4">
-        <v>9.35733791953756</v>
+        <v>157.848473</v>
       </c>
       <c r="I4">
-        <v>0.1414624847241214</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J4">
-        <v>0.1414624847241214</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.19191228378637</v>
+        <v>0.008678333333333333</v>
       </c>
       <c r="N4">
-        <v>1.19191228378637</v>
+        <v>0.026035</v>
       </c>
       <c r="O4">
-        <v>0.4998304806020479</v>
+        <v>0.003161211335871935</v>
       </c>
       <c r="P4">
-        <v>0.4998304806020479</v>
+        <v>0.003161211335871935</v>
       </c>
       <c r="Q4">
-        <v>11.15312600983681</v>
+        <v>0.4566205549505556</v>
       </c>
       <c r="R4">
-        <v>11.15312600983681</v>
+        <v>4.109584994555</v>
       </c>
       <c r="S4">
-        <v>0.07070726172681747</v>
+        <v>0.002425129754065855</v>
       </c>
       <c r="T4">
-        <v>0.07070726172681747</v>
+        <v>0.002425129754065855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.35733791953756</v>
+        <v>52.61615766666667</v>
       </c>
       <c r="H5">
-        <v>9.35733791953756</v>
+        <v>157.848473</v>
       </c>
       <c r="I5">
-        <v>0.1414624847241214</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="J5">
-        <v>0.1414624847241214</v>
+        <v>0.7671520491359202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19272076690455</v>
+        <v>1.217387</v>
       </c>
       <c r="N5">
-        <v>1.19272076690455</v>
+        <v>3.652161</v>
       </c>
       <c r="O5">
-        <v>0.5001695193979523</v>
+        <v>0.4434512292540573</v>
       </c>
       <c r="P5">
-        <v>0.5001695193979523</v>
+        <v>0.4434512292540573</v>
       </c>
       <c r="Q5">
-        <v>11.16069125957587</v>
+        <v>64.05422633335033</v>
       </c>
       <c r="R5">
-        <v>11.16069125957587</v>
+        <v>576.488037000153</v>
       </c>
       <c r="S5">
-        <v>0.07075522299730398</v>
+        <v>0.3401945192140928</v>
       </c>
       <c r="T5">
-        <v>0.07075522299730398</v>
+        <v>0.3401945192140928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.79020744265196</v>
+        <v>9.395935333333332</v>
       </c>
       <c r="H6">
-        <v>5.79020744265196</v>
+        <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.08753527327418853</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="J6">
-        <v>0.08753527327418853</v>
+        <v>0.1369942497546098</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.19191228378637</v>
+        <v>0.239262</v>
       </c>
       <c r="N6">
-        <v>1.19191228378637</v>
+        <v>0.717786</v>
       </c>
       <c r="O6">
-        <v>0.4998304806020479</v>
+        <v>0.08715472402266844</v>
       </c>
       <c r="P6">
-        <v>0.4998304806020479</v>
+        <v>0.08715472402266845</v>
       </c>
       <c r="Q6">
-        <v>6.901419376568135</v>
+        <v>2.248090279724</v>
       </c>
       <c r="R6">
-        <v>6.901419376568135</v>
+        <v>20.232812517516</v>
       </c>
       <c r="S6">
-        <v>0.04375279771026925</v>
+        <v>0.01193969603005553</v>
       </c>
       <c r="T6">
-        <v>0.04375279771026925</v>
+        <v>0.01193969603005553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9.395935333333332</v>
+      </c>
+      <c r="H7">
+        <v>28.187806</v>
+      </c>
+      <c r="I7">
+        <v>0.1369942497546098</v>
+      </c>
+      <c r="J7">
+        <v>0.1369942497546098</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.279928333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.839785</v>
+      </c>
+      <c r="O7">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="P7">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="Q7">
+        <v>12.02612385130111</v>
+      </c>
+      <c r="R7">
+        <v>108.23511466171</v>
+      </c>
+      <c r="S7">
+        <v>0.06387121749486167</v>
+      </c>
+      <c r="T7">
+        <v>0.06387121749486167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.395935333333332</v>
+      </c>
+      <c r="H8">
+        <v>28.187806</v>
+      </c>
+      <c r="I8">
+        <v>0.1369942497546098</v>
+      </c>
+      <c r="J8">
+        <v>0.1369942497546098</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008678333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.026035</v>
+      </c>
+      <c r="O8">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="P8">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="Q8">
+        <v>0.08154105880111109</v>
+      </c>
+      <c r="R8">
+        <v>0.7338695292099999</v>
+      </c>
+      <c r="S8">
+        <v>0.0004330677752735436</v>
+      </c>
+      <c r="T8">
+        <v>0.0004330677752735436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.395935333333332</v>
+      </c>
+      <c r="H9">
+        <v>28.187806</v>
+      </c>
+      <c r="I9">
+        <v>0.1369942497546098</v>
+      </c>
+      <c r="J9">
+        <v>0.1369942497546098</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.217387</v>
+      </c>
+      <c r="N9">
+        <v>3.652161</v>
+      </c>
+      <c r="O9">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="P9">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="Q9">
+        <v>11.43848952764066</v>
+      </c>
+      <c r="R9">
+        <v>102.946405748766</v>
+      </c>
+      <c r="S9">
+        <v>0.06075026845441905</v>
+      </c>
+      <c r="T9">
+        <v>0.06075026845441906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08161033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.244831</v>
+      </c>
+      <c r="I10">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="J10">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.239262</v>
+      </c>
+      <c r="N10">
+        <v>0.717786</v>
+      </c>
+      <c r="O10">
+        <v>0.08715472402266844</v>
+      </c>
+      <c r="P10">
+        <v>0.08715472402266845</v>
+      </c>
+      <c r="Q10">
+        <v>0.019526251574</v>
+      </c>
+      <c r="R10">
+        <v>0.175736264166</v>
+      </c>
+      <c r="S10">
+        <v>0.0001037046912673702</v>
+      </c>
+      <c r="T10">
+        <v>0.0001037046912673702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.79020744265196</v>
-      </c>
-      <c r="H7">
-        <v>5.79020744265196</v>
-      </c>
-      <c r="I7">
-        <v>0.08753527327418853</v>
-      </c>
-      <c r="J7">
-        <v>0.08753527327418853</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.19272076690455</v>
-      </c>
-      <c r="N7">
-        <v>1.19272076690455</v>
-      </c>
-      <c r="O7">
-        <v>0.5001695193979523</v>
-      </c>
-      <c r="P7">
-        <v>0.5001695193979523</v>
-      </c>
-      <c r="Q7">
-        <v>6.906100661536279</v>
-      </c>
-      <c r="R7">
-        <v>6.906100661536279</v>
-      </c>
-      <c r="S7">
-        <v>0.04378247556391929</v>
-      </c>
-      <c r="T7">
-        <v>0.04378247556391929</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08161033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.244831</v>
+      </c>
+      <c r="I11">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="J11">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.279928333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.839785</v>
+      </c>
+      <c r="O11">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="P11">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="Q11">
+        <v>0.1044553779261111</v>
+      </c>
+      <c r="R11">
+        <v>0.9400984013350001</v>
+      </c>
+      <c r="S11">
+        <v>0.000554766626763519</v>
+      </c>
+      <c r="T11">
+        <v>0.0005547666267635191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08161033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.244831</v>
+      </c>
+      <c r="I12">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="J12">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008678333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.026035</v>
+      </c>
+      <c r="O12">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="P12">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="Q12">
+        <v>0.0007082416761111112</v>
+      </c>
+      <c r="R12">
+        <v>0.006374175085</v>
+      </c>
+      <c r="S12">
+        <v>3.761499440147877E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.761499440147877E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08161033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.244831</v>
+      </c>
+      <c r="I13">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="J13">
+        <v>0.001189891797952309</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.217387</v>
+      </c>
+      <c r="N13">
+        <v>3.652161</v>
+      </c>
+      <c r="O13">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="P13">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="Q13">
+        <v>0.09935135886566665</v>
+      </c>
+      <c r="R13">
+        <v>0.894162229791</v>
+      </c>
+      <c r="S13">
+        <v>0.0005276589804812717</v>
+      </c>
+      <c r="T13">
+        <v>0.0005276589804812718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.492645</v>
+      </c>
+      <c r="H14">
+        <v>19.477935</v>
+      </c>
+      <c r="I14">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J14">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.239262</v>
+      </c>
+      <c r="N14">
+        <v>0.717786</v>
+      </c>
+      <c r="O14">
+        <v>0.08715472402266844</v>
+      </c>
+      <c r="P14">
+        <v>0.08715472402266845</v>
+      </c>
+      <c r="Q14">
+        <v>1.55344322799</v>
+      </c>
+      <c r="R14">
+        <v>13.98098905191</v>
+      </c>
+      <c r="S14">
+        <v>0.008250398175479842</v>
+      </c>
+      <c r="T14">
+        <v>0.008250398175479842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.492645</v>
+      </c>
+      <c r="H15">
+        <v>19.477935</v>
+      </c>
+      <c r="I15">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J15">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.279928333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.839785</v>
+      </c>
+      <c r="O15">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="P15">
+        <v>0.4662328353874023</v>
+      </c>
+      <c r="Q15">
+        <v>8.310120293775</v>
+      </c>
+      <c r="R15">
+        <v>74.791082643975</v>
+      </c>
+      <c r="S15">
+        <v>0.0441353762238813</v>
+      </c>
+      <c r="T15">
+        <v>0.04413537622388131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.492645</v>
+      </c>
+      <c r="H16">
+        <v>19.477935</v>
+      </c>
+      <c r="I16">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J16">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.008678333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.026035</v>
+      </c>
+      <c r="O16">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="P16">
+        <v>0.003161211335871935</v>
+      </c>
+      <c r="Q16">
+        <v>0.056345337525</v>
+      </c>
+      <c r="R16">
+        <v>0.507108037725</v>
+      </c>
+      <c r="S16">
+        <v>0.0002992523070923892</v>
+      </c>
+      <c r="T16">
+        <v>0.0002992523070923892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.492645</v>
+      </c>
+      <c r="H17">
+        <v>19.477935</v>
+      </c>
+      <c r="I17">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="J17">
+        <v>0.09466380931151776</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.217387</v>
+      </c>
+      <c r="N17">
+        <v>3.652161</v>
+      </c>
+      <c r="O17">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="P17">
+        <v>0.4434512292540573</v>
+      </c>
+      <c r="Q17">
+        <v>7.904061618614999</v>
+      </c>
+      <c r="R17">
+        <v>71.136554567535</v>
+      </c>
+      <c r="S17">
+        <v>0.04197878260506422</v>
+      </c>
+      <c r="T17">
+        <v>0.04197878260506423</v>
       </c>
     </row>
   </sheetData>
